--- a/AppIR-planilha/AppIR.xlsx
+++ b/AppIR-planilha/AppIR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Área de Trabalho\ProjetosDIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\henri\OneDrive\Documentos\GitHub\vizzuplan-home\AppIR-planilha\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0586025F-B6E8-4B18-8D83-D91BE37AAAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9A1255-DCCB-4EEA-A959-4F69C5E79CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" firstSheet="1" activeTab="1" xr2:uid="{4C0C3520-D39A-4A65-9645-6F7206B0791A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="0" xr2:uid="{4C0C3520-D39A-4A65-9645-6F7206B0791A}"/>
   </bookViews>
   <sheets>
     <sheet name="TITULAR" sheetId="1" r:id="rId1"/>
@@ -3167,8 +3167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01283336-5AFF-4FB7-A04A-9C0657CF6FB8}">
   <dimension ref="A2:E18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <pane ySplit="30" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="30" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3302,9 +3302,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B26BB1-DF4A-4662-A95F-F113DA3257F0}">
   <dimension ref="A2:E23"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <pane ySplit="30" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3458,7 +3458,7 @@
       <pane xSplit="1" ySplit="23" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
